--- a/jixiao.xlsx
+++ b/jixiao.xlsx
@@ -5,17 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12839311\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12839311\Desktop\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DEC1B0-480C-48E9-BF86-C54CC1C0F92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7CCD16-B3EF-4AFF-ABC6-5BAE8BB7BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="17" r:id="rId1"/>
-    <sheet name="2月" sheetId="14" r:id="rId2"/>
-    <sheet name="1月" sheetId="1" r:id="rId3"/>
+    <sheet name="10月" sheetId="22" r:id="rId2"/>
+    <sheet name="11月" sheetId="23" r:id="rId3"/>
+    <sheet name="12月" sheetId="21" r:id="rId4"/>
+    <sheet name="8月" sheetId="18" r:id="rId5"/>
+    <sheet name="9月" sheetId="19" r:id="rId6"/>
+    <sheet name="2月" sheetId="14" r:id="rId7"/>
+    <sheet name="1月" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="61">
   <si>
     <t>吴珊珊</t>
   </si>
@@ -225,12 +230,15 @@
     <t>分组</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>何氏芳兰</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -271,8 +279,44 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00AA5B"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDE322C"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -286,6 +330,42 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB0B3B2"/>
         <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEEFCDE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE9E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B3B2"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -369,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -419,6 +499,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,8 +908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2589B543-DAC9-460E-BDC7-EFF95497F889}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N43" sqref="A1:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -2774,6 +2875,4709 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C044B-CD36-484C-840B-A95AB955A1CA}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{617C2B6D-F9BA-4827-B134-A5A438669310}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="B3:O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593A59EE-22FB-4FDA-9D6A-F3A5522BCAA0}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:N43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="19"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="19"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="19"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="19"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="19"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="19"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="19"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="19"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="19"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="19"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="19"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="19"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="19"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="19"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="19"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="19"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="19"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="19"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="18"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="19"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="19"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="18"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="19"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="19"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="19"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="19"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="19"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3C95D3-5399-4914-A031-834529484FB9}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1</v>
+      </c>
+      <c r="C3" s="17">
+        <v>1</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="18">
+        <v>0</v>
+      </c>
+      <c r="H3" s="18">
+        <v>0</v>
+      </c>
+      <c r="I3" s="18">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>1</v>
+      </c>
+      <c r="K3" s="17">
+        <v>1</v>
+      </c>
+      <c r="L3" s="17">
+        <v>1</v>
+      </c>
+      <c r="M3" s="17">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+      <c r="O3" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
+        <v>1</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18">
+        <v>0</v>
+      </c>
+      <c r="I4" s="18">
+        <v>0</v>
+      </c>
+      <c r="J4" s="17">
+        <v>1</v>
+      </c>
+      <c r="K4" s="17">
+        <v>1</v>
+      </c>
+      <c r="L4" s="17">
+        <v>1</v>
+      </c>
+      <c r="M4" s="18">
+        <v>0</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+      <c r="O4" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18">
+        <v>0</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="18">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18">
+        <v>0</v>
+      </c>
+      <c r="J5" s="17">
+        <v>1</v>
+      </c>
+      <c r="K5" s="17">
+        <v>1</v>
+      </c>
+      <c r="L5" s="17">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+      <c r="O5" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0</v>
+      </c>
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18">
+        <v>0</v>
+      </c>
+      <c r="I6" s="18">
+        <v>0</v>
+      </c>
+      <c r="J6" s="18">
+        <v>0</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="18">
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="17">
+        <v>1</v>
+      </c>
+      <c r="C7" s="18">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0</v>
+      </c>
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <v>1</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>0</v>
+      </c>
+      <c r="K7" s="18">
+        <v>0</v>
+      </c>
+      <c r="L7" s="17">
+        <v>1</v>
+      </c>
+      <c r="M7" s="18">
+        <v>0</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="18">
+        <v>0</v>
+      </c>
+      <c r="C8" s="18">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0</v>
+      </c>
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18">
+        <v>0</v>
+      </c>
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="17">
+        <v>1</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0</v>
+      </c>
+      <c r="L8" s="18">
+        <v>0</v>
+      </c>
+      <c r="M8" s="18">
+        <v>0</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+      <c r="O8" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0</v>
+      </c>
+      <c r="C9" s="18">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="18">
+        <v>0</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>0</v>
+      </c>
+      <c r="L9" s="18">
+        <v>0</v>
+      </c>
+      <c r="M9" s="18">
+        <v>0</v>
+      </c>
+      <c r="N9" s="18">
+        <v>0</v>
+      </c>
+      <c r="O9" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="18">
+        <v>0</v>
+      </c>
+      <c r="C10" s="17">
+        <v>1</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>0</v>
+      </c>
+      <c r="H10" s="17">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
+        <v>1</v>
+      </c>
+      <c r="J10" s="17">
+        <v>1</v>
+      </c>
+      <c r="K10" s="17">
+        <v>1</v>
+      </c>
+      <c r="L10" s="17">
+        <v>1</v>
+      </c>
+      <c r="M10" s="17">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>0</v>
+      </c>
+      <c r="O10" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="18">
+        <v>0</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
+        <v>1</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
+      </c>
+      <c r="J11" s="17">
+        <v>1</v>
+      </c>
+      <c r="K11" s="17">
+        <v>1</v>
+      </c>
+      <c r="L11" s="17">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18">
+        <v>0</v>
+      </c>
+      <c r="O11" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="18">
+        <v>0</v>
+      </c>
+      <c r="C12" s="17">
+        <v>1</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
+        <v>1</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1</v>
+      </c>
+      <c r="K12" s="17">
+        <v>1</v>
+      </c>
+      <c r="L12" s="17">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="17">
+        <v>1</v>
+      </c>
+      <c r="C13" s="17">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="17">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>1</v>
+      </c>
+      <c r="G13" s="17">
+        <v>1</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0</v>
+      </c>
+      <c r="I13" s="17">
+        <v>1</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1</v>
+      </c>
+      <c r="L13" s="17">
+        <v>1</v>
+      </c>
+      <c r="M13" s="17">
+        <v>1</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+      <c r="O13" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="18">
+        <v>0</v>
+      </c>
+      <c r="C14" s="17">
+        <v>1</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="17">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0</v>
+      </c>
+      <c r="G14" s="18">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>1</v>
+      </c>
+      <c r="I14" s="17">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17">
+        <v>1</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1</v>
+      </c>
+      <c r="L14" s="17">
+        <v>1</v>
+      </c>
+      <c r="M14" s="17">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+      <c r="O14" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="18">
+        <v>0</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="17">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>0</v>
+      </c>
+      <c r="G15" s="18">
+        <v>0</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>1</v>
+      </c>
+      <c r="J15" s="17">
+        <v>1</v>
+      </c>
+      <c r="K15" s="17">
+        <v>1</v>
+      </c>
+      <c r="L15" s="17">
+        <v>1</v>
+      </c>
+      <c r="M15" s="17">
+        <v>1</v>
+      </c>
+      <c r="N15" s="18">
+        <v>0</v>
+      </c>
+      <c r="O15" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1</v>
+      </c>
+      <c r="C16" s="17">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>1</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+      <c r="G16" s="17">
+        <v>1</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0</v>
+      </c>
+      <c r="I16" s="17">
+        <v>1</v>
+      </c>
+      <c r="J16" s="17">
+        <v>1</v>
+      </c>
+      <c r="K16" s="17">
+        <v>1</v>
+      </c>
+      <c r="L16" s="17">
+        <v>1</v>
+      </c>
+      <c r="M16" s="17">
+        <v>1</v>
+      </c>
+      <c r="N16" s="18">
+        <v>0</v>
+      </c>
+      <c r="O16" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="18">
+        <v>0</v>
+      </c>
+      <c r="C17" s="17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="17">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>1</v>
+      </c>
+      <c r="I17" s="17">
+        <v>1</v>
+      </c>
+      <c r="J17" s="17">
+        <v>1</v>
+      </c>
+      <c r="K17" s="17">
+        <v>1</v>
+      </c>
+      <c r="L17" s="17">
+        <v>1</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1</v>
+      </c>
+      <c r="C18" s="17">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>1</v>
+      </c>
+      <c r="F18" s="17">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="17">
+        <v>1</v>
+      </c>
+      <c r="I18" s="17">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <v>1</v>
+      </c>
+      <c r="K18" s="17">
+        <v>1</v>
+      </c>
+      <c r="L18" s="17">
+        <v>1</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="17">
+        <v>1</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>0</v>
+      </c>
+      <c r="G19" s="18">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>1</v>
+      </c>
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>0</v>
+      </c>
+      <c r="K19" s="17">
+        <v>1</v>
+      </c>
+      <c r="L19" s="17">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18">
+        <v>0</v>
+      </c>
+      <c r="N19" s="18">
+        <v>0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="18">
+        <v>0</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>0</v>
+      </c>
+      <c r="G20" s="18">
+        <v>0</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1</v>
+      </c>
+      <c r="I20" s="17">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <v>1</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+      <c r="L20" s="17">
+        <v>1</v>
+      </c>
+      <c r="M20" s="17">
+        <v>1</v>
+      </c>
+      <c r="N20" s="18">
+        <v>0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="18">
+        <v>0</v>
+      </c>
+      <c r="C21" s="18">
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0</v>
+      </c>
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>0</v>
+      </c>
+      <c r="L21" s="18">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="18">
+        <v>0</v>
+      </c>
+      <c r="O21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="18">
+        <v>0</v>
+      </c>
+      <c r="C22" s="18">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>0</v>
+      </c>
+      <c r="G22" s="18">
+        <v>0</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+      <c r="I22" s="17">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <v>1</v>
+      </c>
+      <c r="K22" s="17">
+        <v>1</v>
+      </c>
+      <c r="L22" s="17">
+        <v>1</v>
+      </c>
+      <c r="M22" s="18">
+        <v>0</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="18">
+        <v>0</v>
+      </c>
+      <c r="C23" s="17">
+        <v>1</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>1</v>
+      </c>
+      <c r="F23" s="17">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="17">
+        <v>1</v>
+      </c>
+      <c r="I23" s="17">
+        <v>1</v>
+      </c>
+      <c r="J23" s="17">
+        <v>1</v>
+      </c>
+      <c r="K23" s="17">
+        <v>1</v>
+      </c>
+      <c r="L23" s="17">
+        <v>1</v>
+      </c>
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="17">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0</v>
+      </c>
+      <c r="G24" s="18">
+        <v>0</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1</v>
+      </c>
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
+      <c r="K24" s="17">
+        <v>1</v>
+      </c>
+      <c r="L24" s="17">
+        <v>1</v>
+      </c>
+      <c r="M24" s="18">
+        <v>0</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+      <c r="O24" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="18">
+        <v>0</v>
+      </c>
+      <c r="C25" s="17">
+        <v>1</v>
+      </c>
+      <c r="D25" s="17">
+        <v>1</v>
+      </c>
+      <c r="E25" s="17">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>0</v>
+      </c>
+      <c r="G25" s="18">
+        <v>0</v>
+      </c>
+      <c r="H25" s="17">
+        <v>1</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="17">
+        <v>1</v>
+      </c>
+      <c r="K25" s="17">
+        <v>1</v>
+      </c>
+      <c r="L25" s="17">
+        <v>1</v>
+      </c>
+      <c r="M25" s="17">
+        <v>1</v>
+      </c>
+      <c r="N25" s="18">
+        <v>0</v>
+      </c>
+      <c r="O25" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="17">
+        <v>1</v>
+      </c>
+      <c r="C26" s="17">
+        <v>1</v>
+      </c>
+      <c r="D26" s="17">
+        <v>1</v>
+      </c>
+      <c r="E26" s="17">
+        <v>1</v>
+      </c>
+      <c r="F26" s="17">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>0</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0</v>
+      </c>
+      <c r="I26" s="17">
+        <v>1</v>
+      </c>
+      <c r="J26" s="17">
+        <v>1</v>
+      </c>
+      <c r="K26" s="17">
+        <v>1</v>
+      </c>
+      <c r="L26" s="17">
+        <v>1</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+      <c r="O26" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="17">
+        <v>1</v>
+      </c>
+      <c r="C27" s="18">
+        <v>0</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18">
+        <v>0</v>
+      </c>
+      <c r="G27" s="18">
+        <v>0</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18">
+        <v>0</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0</v>
+      </c>
+      <c r="K27" s="18">
+        <v>0</v>
+      </c>
+      <c r="L27" s="17">
+        <v>1</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>0</v>
+      </c>
+      <c r="O27" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="17">
+        <v>1</v>
+      </c>
+      <c r="C28" s="18">
+        <v>0</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0</v>
+      </c>
+      <c r="E28" s="18">
+        <v>0</v>
+      </c>
+      <c r="F28" s="18">
+        <v>0</v>
+      </c>
+      <c r="G28" s="18">
+        <v>0</v>
+      </c>
+      <c r="H28" s="18">
+        <v>0</v>
+      </c>
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>0</v>
+      </c>
+      <c r="K28" s="18">
+        <v>0</v>
+      </c>
+      <c r="L28" s="18">
+        <v>0</v>
+      </c>
+      <c r="M28" s="18">
+        <v>0</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+      <c r="O28" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="17">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="17">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>0</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0</v>
+      </c>
+      <c r="K29" s="17">
+        <v>1</v>
+      </c>
+      <c r="L29" s="18">
+        <v>0</v>
+      </c>
+      <c r="M29" s="18">
+        <v>0</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
+      <c r="O29" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="18">
+        <v>0</v>
+      </c>
+      <c r="C30" s="18">
+        <v>0</v>
+      </c>
+      <c r="D30" s="17">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>0</v>
+      </c>
+      <c r="F30" s="18">
+        <v>0</v>
+      </c>
+      <c r="G30" s="18">
+        <v>0</v>
+      </c>
+      <c r="H30" s="17">
+        <v>1</v>
+      </c>
+      <c r="I30" s="18">
+        <v>0</v>
+      </c>
+      <c r="J30" s="18">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17">
+        <v>1</v>
+      </c>
+      <c r="L30" s="17">
+        <v>1</v>
+      </c>
+      <c r="M30" s="17">
+        <v>1</v>
+      </c>
+      <c r="N30" s="17">
+        <v>1</v>
+      </c>
+      <c r="O30" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="17">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="17">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>0</v>
+      </c>
+      <c r="F31" s="17">
+        <v>1</v>
+      </c>
+      <c r="G31" s="17">
+        <v>1</v>
+      </c>
+      <c r="H31" s="17">
+        <v>1</v>
+      </c>
+      <c r="I31" s="18">
+        <v>0</v>
+      </c>
+      <c r="J31" s="17">
+        <v>1</v>
+      </c>
+      <c r="K31" s="17">
+        <v>1</v>
+      </c>
+      <c r="L31" s="18">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17">
+        <v>1</v>
+      </c>
+      <c r="N31" s="17">
+        <v>1</v>
+      </c>
+      <c r="O31" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="17">
+        <v>1</v>
+      </c>
+      <c r="E32" s="17">
+        <v>1</v>
+      </c>
+      <c r="F32" s="17">
+        <v>1</v>
+      </c>
+      <c r="G32" s="17">
+        <v>1</v>
+      </c>
+      <c r="H32" s="17">
+        <v>1</v>
+      </c>
+      <c r="I32" s="17">
+        <v>1</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1</v>
+      </c>
+      <c r="K32" s="17">
+        <v>1</v>
+      </c>
+      <c r="L32" s="17">
+        <v>1</v>
+      </c>
+      <c r="M32" s="18">
+        <v>0</v>
+      </c>
+      <c r="N32" s="17">
+        <v>1</v>
+      </c>
+      <c r="O32" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="18">
+        <v>0</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17">
+        <v>1</v>
+      </c>
+      <c r="E33" s="17">
+        <v>1</v>
+      </c>
+      <c r="F33" s="17">
+        <v>1</v>
+      </c>
+      <c r="G33" s="17">
+        <v>1</v>
+      </c>
+      <c r="H33" s="17">
+        <v>1</v>
+      </c>
+      <c r="I33" s="17">
+        <v>1</v>
+      </c>
+      <c r="J33" s="17">
+        <v>1</v>
+      </c>
+      <c r="K33" s="17">
+        <v>1</v>
+      </c>
+      <c r="L33" s="17">
+        <v>1</v>
+      </c>
+      <c r="M33" s="17">
+        <v>1</v>
+      </c>
+      <c r="N33" s="17">
+        <v>1</v>
+      </c>
+      <c r="O33" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="18">
+        <v>0</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0</v>
+      </c>
+      <c r="D34" s="17">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17">
+        <v>1</v>
+      </c>
+      <c r="G34" s="17">
+        <v>1</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>1</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>0</v>
+      </c>
+      <c r="L34" s="18">
+        <v>0</v>
+      </c>
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="17">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="17">
+        <v>1</v>
+      </c>
+      <c r="E35" s="17">
+        <v>1</v>
+      </c>
+      <c r="F35" s="17">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>0</v>
+      </c>
+      <c r="H35" s="18">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>1</v>
+      </c>
+      <c r="J35" s="17">
+        <v>1</v>
+      </c>
+      <c r="K35" s="17">
+        <v>1</v>
+      </c>
+      <c r="L35" s="18">
+        <v>0</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+      <c r="O35" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="18">
+        <v>0</v>
+      </c>
+      <c r="C36" s="18">
+        <v>0</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0</v>
+      </c>
+      <c r="E36" s="18">
+        <v>0</v>
+      </c>
+      <c r="F36" s="17">
+        <v>1</v>
+      </c>
+      <c r="G36" s="17">
+        <v>1</v>
+      </c>
+      <c r="H36" s="18">
+        <v>0</v>
+      </c>
+      <c r="I36" s="18">
+        <v>0</v>
+      </c>
+      <c r="J36" s="18">
+        <v>0</v>
+      </c>
+      <c r="K36" s="18">
+        <v>0</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>0</v>
+      </c>
+      <c r="N36" s="18">
+        <v>0</v>
+      </c>
+      <c r="O36" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="18">
+        <v>0</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0</v>
+      </c>
+      <c r="E37" s="18">
+        <v>0</v>
+      </c>
+      <c r="F37" s="17">
+        <v>1</v>
+      </c>
+      <c r="G37" s="17">
+        <v>1</v>
+      </c>
+      <c r="H37" s="18">
+        <v>0</v>
+      </c>
+      <c r="I37" s="18">
+        <v>0</v>
+      </c>
+      <c r="J37" s="18">
+        <v>0</v>
+      </c>
+      <c r="K37" s="18">
+        <v>0</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0</v>
+      </c>
+      <c r="M37" s="18">
+        <v>0</v>
+      </c>
+      <c r="N37" s="18">
+        <v>0</v>
+      </c>
+      <c r="O37" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="17">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="17">
+        <v>1</v>
+      </c>
+      <c r="E38" s="17">
+        <v>1</v>
+      </c>
+      <c r="F38" s="17">
+        <v>1</v>
+      </c>
+      <c r="G38" s="17">
+        <v>1</v>
+      </c>
+      <c r="H38" s="17">
+        <v>1</v>
+      </c>
+      <c r="I38" s="17">
+        <v>1</v>
+      </c>
+      <c r="J38" s="17">
+        <v>1</v>
+      </c>
+      <c r="K38" s="17">
+        <v>1</v>
+      </c>
+      <c r="L38" s="17">
+        <v>1</v>
+      </c>
+      <c r="M38" s="17">
+        <v>1</v>
+      </c>
+      <c r="N38" s="18">
+        <v>0</v>
+      </c>
+      <c r="O38" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="17">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="17">
+        <v>1</v>
+      </c>
+      <c r="E39" s="17">
+        <v>1</v>
+      </c>
+      <c r="F39" s="17">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0</v>
+      </c>
+      <c r="H39" s="18">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>1</v>
+      </c>
+      <c r="J39" s="18">
+        <v>0</v>
+      </c>
+      <c r="K39" s="17">
+        <v>1</v>
+      </c>
+      <c r="L39" s="17">
+        <v>1</v>
+      </c>
+      <c r="M39" s="17">
+        <v>1</v>
+      </c>
+      <c r="N39" s="18">
+        <v>0</v>
+      </c>
+      <c r="O39" s="19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="17">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="17">
+        <v>1</v>
+      </c>
+      <c r="E40" s="17">
+        <v>1</v>
+      </c>
+      <c r="F40" s="17">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>0</v>
+      </c>
+      <c r="H40" s="17">
+        <v>1</v>
+      </c>
+      <c r="I40" s="17">
+        <v>1</v>
+      </c>
+      <c r="J40" s="17">
+        <v>1</v>
+      </c>
+      <c r="K40" s="17">
+        <v>1</v>
+      </c>
+      <c r="L40" s="17">
+        <v>1</v>
+      </c>
+      <c r="M40" s="17">
+        <v>1</v>
+      </c>
+      <c r="N40" s="18">
+        <v>0</v>
+      </c>
+      <c r="O40" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="17">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1</v>
+      </c>
+      <c r="D41" s="17">
+        <v>1</v>
+      </c>
+      <c r="E41" s="17">
+        <v>1</v>
+      </c>
+      <c r="F41" s="17">
+        <v>1</v>
+      </c>
+      <c r="G41" s="17">
+        <v>1</v>
+      </c>
+      <c r="H41" s="17">
+        <v>1</v>
+      </c>
+      <c r="I41" s="17">
+        <v>1</v>
+      </c>
+      <c r="J41" s="17">
+        <v>1</v>
+      </c>
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>1</v>
+      </c>
+      <c r="M41" s="17">
+        <v>1</v>
+      </c>
+      <c r="N41" s="18">
+        <v>0</v>
+      </c>
+      <c r="O41" s="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="17">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1</v>
+      </c>
+      <c r="E42" s="17">
+        <v>1</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1</v>
+      </c>
+      <c r="G42" s="17">
+        <v>1</v>
+      </c>
+      <c r="H42" s="17">
+        <v>1</v>
+      </c>
+      <c r="I42" s="17">
+        <v>1</v>
+      </c>
+      <c r="J42" s="17">
+        <v>1</v>
+      </c>
+      <c r="K42" s="17">
+        <v>1</v>
+      </c>
+      <c r="L42" s="17">
+        <v>1</v>
+      </c>
+      <c r="M42" s="18">
+        <v>0</v>
+      </c>
+      <c r="N42" s="18">
+        <v>0</v>
+      </c>
+      <c r="O42" s="19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="22">
+        <v>21</v>
+      </c>
+      <c r="C43" s="22">
+        <v>26</v>
+      </c>
+      <c r="D43" s="22">
+        <v>30</v>
+      </c>
+      <c r="E43" s="22">
+        <v>27</v>
+      </c>
+      <c r="F43" s="22">
+        <v>21</v>
+      </c>
+      <c r="G43" s="22">
+        <v>11</v>
+      </c>
+      <c r="H43" s="22">
+        <v>18</v>
+      </c>
+      <c r="I43" s="22">
+        <v>22</v>
+      </c>
+      <c r="J43" s="22">
+        <v>28</v>
+      </c>
+      <c r="K43" s="22">
+        <v>30</v>
+      </c>
+      <c r="L43" s="22">
+        <v>30</v>
+      </c>
+      <c r="M43" s="22">
+        <v>15</v>
+      </c>
+      <c r="N43" s="22">
+        <v>4</v>
+      </c>
+      <c r="O43" s="22"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD7AAFC-44EC-4B75-A5D9-D218756F4AB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB11C21-7950-4A21-B92A-BF5ED047080F}">
   <dimension ref="A1:N43"/>
   <sheetViews>
@@ -4743,7 +9547,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="部门综合考虑"/>
   <dimension ref="A1:N43"/>

--- a/jixiao.xlsx
+++ b/jixiao.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12839311\Desktop\box\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7CCD16-B3EF-4AFF-ABC6-5BAE8BB7BA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7242DE-8049-49AE-97B8-59F8D648D593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3月" sheetId="17" r:id="rId1"/>
@@ -18,9 +18,8 @@
     <sheet name="11月" sheetId="23" r:id="rId3"/>
     <sheet name="12月" sheetId="21" r:id="rId4"/>
     <sheet name="8月" sheetId="18" r:id="rId5"/>
-    <sheet name="9月" sheetId="19" r:id="rId6"/>
-    <sheet name="2月" sheetId="14" r:id="rId7"/>
-    <sheet name="1月" sheetId="1" r:id="rId8"/>
+    <sheet name="2月" sheetId="14" r:id="rId6"/>
+    <sheet name="1月" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2878,7 +2877,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C044B-CD36-484C-840B-A95AB955A1CA}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
@@ -4651,7 +4650,7 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:N43"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5536,8 +5535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E3C95D3-5399-4914-A031-834529484FB9}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5677,6 +5676,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="19">
+        <f t="shared" ref="O3:O42" si="0">SUM(B3:N3)</f>
         <v>9</v>
       </c>
     </row>
@@ -5724,6 +5724,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="19">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -5771,6 +5772,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -5817,7 +5819,8 @@
       <c r="N6" s="18">
         <v>0</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -5864,7 +5867,8 @@
       <c r="N7" s="18">
         <v>0</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="19">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -5911,7 +5915,8 @@
       <c r="N8" s="18">
         <v>0</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5958,7 +5963,8 @@
       <c r="N9" s="18">
         <v>0</v>
       </c>
-      <c r="O9" s="21">
+      <c r="O9" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6006,6 +6012,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="19">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -6053,6 +6060,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -6100,6 +6108,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="19">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -6147,6 +6156,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -6194,6 +6204,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -6241,6 +6252,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="19">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -6288,6 +6300,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -6335,6 +6348,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -6382,6 +6396,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="19">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -6429,6 +6444,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="19">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
@@ -6476,6 +6492,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -6522,7 +6539,8 @@
       <c r="N21" s="18">
         <v>0</v>
       </c>
-      <c r="O21" s="21">
+      <c r="O21" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -6570,6 +6588,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="19">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -6617,6 +6636,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -6664,6 +6684,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="19">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -6711,6 +6732,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="19">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -6758,6 +6780,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -6804,7 +6827,8 @@
       <c r="N27" s="18">
         <v>0</v>
       </c>
-      <c r="O27" s="20">
+      <c r="O27" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -6851,7 +6875,8 @@
       <c r="N28" s="18">
         <v>0</v>
       </c>
-      <c r="O28" s="21">
+      <c r="O28" s="19">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -6898,7 +6923,8 @@
       <c r="N29" s="18">
         <v>0</v>
       </c>
-      <c r="O29" s="20">
+      <c r="O29" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -6946,7 +6972,8 @@
         <v>1</v>
       </c>
       <c r="O30" s="19">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -6993,7 +7020,8 @@
         <v>1</v>
       </c>
       <c r="O31" s="19">
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -7040,7 +7068,8 @@
         <v>1</v>
       </c>
       <c r="O32" s="19">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -7087,7 +7116,8 @@
         <v>1</v>
       </c>
       <c r="O33" s="19">
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -7133,7 +7163,8 @@
       <c r="N34" s="18">
         <v>0</v>
       </c>
-      <c r="O34" s="20">
+      <c r="O34" s="19">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -7181,6 +7212,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="19">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -7227,7 +7259,8 @@
       <c r="N36" s="18">
         <v>0</v>
       </c>
-      <c r="O36" s="20">
+      <c r="O36" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7274,7 +7307,8 @@
       <c r="N37" s="18">
         <v>0</v>
       </c>
-      <c r="O37" s="20">
+      <c r="O37" s="19">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -7322,6 +7356,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="19">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -7369,6 +7404,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="19">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -7416,6 +7452,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -7463,6 +7500,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="19">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -7510,6 +7548,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="19">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
     </row>
@@ -7518,42 +7557,55 @@
         <v>55</v>
       </c>
       <c r="B43" s="22">
+        <f>SUM(B3:B42)</f>
         <v>21</v>
       </c>
       <c r="C43" s="22">
+        <f t="shared" ref="C43:N43" si="1">SUM(C3:C42)</f>
         <v>26</v>
       </c>
       <c r="D43" s="22">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="E43" s="22">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="F43" s="22">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="G43" s="22">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H43" s="22">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I43" s="22">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="J43" s="22">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="K43" s="22">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="L43" s="22">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="M43" s="22">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="N43" s="22">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="O43" s="22"/>
@@ -7565,23 +7617,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDD7AAFC-44EC-4B75-A5D9-D218756F4AB6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DB11C21-7950-4A21-B92A-BF5ED047080F}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -9547,7 +9586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="部门综合考虑"/>
   <dimension ref="A1:N43"/>

--- a/jixiao.xlsx
+++ b/jixiao.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12839311\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12935332\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53CF22D9-1C2B-4A6F-81C7-B994B57FBFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DC026F1-D12D-4CDC-9357-51A14387A56E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2025_10" sheetId="1" r:id="rId1"/>
+    <sheet name="2025_12" sheetId="3" r:id="rId1"/>
+    <sheet name="2025_10" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="60">
   <si>
     <t>明细</t>
   </si>
@@ -368,7 +369,49 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00AA5B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEFCDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDE322C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE9E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <color rgb="FF00AA5B"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEEFCDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFDE322C"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE9E8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -699,20 +742,2127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A57F76A-ADAD-4675-ADFA-4541A5B6C9B6}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R43" sqref="R43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.81640625" style="2" customWidth="1"/>
+    <col min="2" max="13" width="10" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O2" s="4"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="8">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <f>SUM(B3:N3)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>0</v>
+      </c>
+      <c r="N4" s="8">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O42" si="0">SUM(B4:N4)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>1</v>
+      </c>
+      <c r="M5" s="8">
+        <v>0</v>
+      </c>
+      <c r="N5" s="8">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="J8" s="8">
+        <v>1</v>
+      </c>
+      <c r="K8" s="8">
+        <v>0</v>
+      </c>
+      <c r="L8" s="8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="8">
+        <v>0</v>
+      </c>
+      <c r="N8" s="8">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>0</v>
+      </c>
+      <c r="J9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="8">
+        <v>1</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="J10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="8">
+        <v>1</v>
+      </c>
+      <c r="M10" s="8">
+        <v>1</v>
+      </c>
+      <c r="N10" s="8">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0</v>
+      </c>
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1</v>
+      </c>
+      <c r="M11" s="8">
+        <v>0</v>
+      </c>
+      <c r="N11" s="8">
+        <v>0</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0</v>
+      </c>
+      <c r="C12" s="8">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1</v>
+      </c>
+      <c r="K12" s="8">
+        <v>1</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="8">
+        <v>1</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1</v>
+      </c>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>1</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="8">
+        <v>0</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="8">
+        <v>1</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0</v>
+      </c>
+      <c r="H15" s="8">
+        <v>0</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="8">
+        <v>1</v>
+      </c>
+      <c r="M15" s="8">
+        <v>0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8">
+        <v>1</v>
+      </c>
+      <c r="C16" s="8">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8">
+        <v>1</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>1</v>
+      </c>
+      <c r="G16" s="8">
+        <v>1</v>
+      </c>
+      <c r="H16" s="8">
+        <v>0</v>
+      </c>
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="K16" s="8">
+        <v>1</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="8">
+        <v>1</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1</v>
+      </c>
+      <c r="I17" s="8">
+        <v>1</v>
+      </c>
+      <c r="J17" s="8">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="8">
+        <v>1</v>
+      </c>
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="F18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="8">
+        <v>1</v>
+      </c>
+      <c r="I18" s="8">
+        <v>1</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="8">
+        <v>1</v>
+      </c>
+      <c r="M18" s="8">
+        <v>1</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="8">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8">
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+      <c r="L19" s="8">
+        <v>1</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="8">
+        <v>1</v>
+      </c>
+      <c r="C20" s="8">
+        <v>1</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>1</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1</v>
+      </c>
+      <c r="I20" s="8">
+        <v>1</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="8">
+        <v>0</v>
+      </c>
+      <c r="C21" s="8">
+        <v>0</v>
+      </c>
+      <c r="D21" s="8">
+        <v>1</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>1</v>
+      </c>
+      <c r="H21" s="8">
+        <v>0</v>
+      </c>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="8">
+        <v>0</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="8">
+        <v>0</v>
+      </c>
+      <c r="C22" s="8">
+        <v>0</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0</v>
+      </c>
+      <c r="H22" s="8">
+        <v>0</v>
+      </c>
+      <c r="I22" s="8">
+        <v>1</v>
+      </c>
+      <c r="J22" s="8">
+        <v>1</v>
+      </c>
+      <c r="K22" s="8">
+        <v>1</v>
+      </c>
+      <c r="L22" s="8">
+        <v>1</v>
+      </c>
+      <c r="M22" s="8">
+        <v>1</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <v>1</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0</v>
+      </c>
+      <c r="H23" s="8">
+        <v>1</v>
+      </c>
+      <c r="I23" s="8">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>1</v>
+      </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
+      <c r="L23" s="8">
+        <v>1</v>
+      </c>
+      <c r="M23" s="8">
+        <v>1</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="8">
+        <v>1</v>
+      </c>
+      <c r="C24" s="8">
+        <v>1</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24" s="8">
+        <v>1</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="8">
+        <v>1</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24" s="8">
+        <v>1</v>
+      </c>
+      <c r="L24" s="8">
+        <v>1</v>
+      </c>
+      <c r="M24" s="8">
+        <v>1</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="8">
+        <v>0</v>
+      </c>
+      <c r="C25" s="8">
+        <v>1</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0</v>
+      </c>
+      <c r="H25" s="8">
+        <v>1</v>
+      </c>
+      <c r="I25" s="8">
+        <v>0</v>
+      </c>
+      <c r="J25" s="8">
+        <v>1</v>
+      </c>
+      <c r="K25" s="8">
+        <v>1</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1</v>
+      </c>
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="8">
+        <v>1</v>
+      </c>
+      <c r="C26" s="8">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1</v>
+      </c>
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8">
+        <v>1</v>
+      </c>
+      <c r="G26" s="8">
+        <v>1</v>
+      </c>
+      <c r="H26" s="8">
+        <v>0</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1</v>
+      </c>
+      <c r="J26" s="8">
+        <v>1</v>
+      </c>
+      <c r="K26" s="8">
+        <v>1</v>
+      </c>
+      <c r="L26" s="8">
+        <v>1</v>
+      </c>
+      <c r="M26" s="8">
+        <v>1</v>
+      </c>
+      <c r="N26" s="8">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="8">
+        <v>1</v>
+      </c>
+      <c r="C27" s="8">
+        <v>0</v>
+      </c>
+      <c r="D27" s="8">
+        <v>0</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0</v>
+      </c>
+      <c r="F27" s="8">
+        <v>1</v>
+      </c>
+      <c r="G27" s="8">
+        <v>1</v>
+      </c>
+      <c r="H27" s="8">
+        <v>0</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0</v>
+      </c>
+      <c r="J27" s="8">
+        <v>0</v>
+      </c>
+      <c r="K27" s="8">
+        <v>1</v>
+      </c>
+      <c r="L27" s="8">
+        <v>1</v>
+      </c>
+      <c r="M27" s="8">
+        <v>0</v>
+      </c>
+      <c r="N27" s="8">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="8">
+        <v>1</v>
+      </c>
+      <c r="C28" s="8">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0</v>
+      </c>
+      <c r="F28" s="8">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
+        <v>0</v>
+      </c>
+      <c r="H28" s="8">
+        <v>0</v>
+      </c>
+      <c r="I28" s="8">
+        <v>0</v>
+      </c>
+      <c r="J28" s="8">
+        <v>0</v>
+      </c>
+      <c r="K28" s="8">
+        <v>0</v>
+      </c>
+      <c r="L28" s="8">
+        <v>0</v>
+      </c>
+      <c r="M28" s="8">
+        <v>0</v>
+      </c>
+      <c r="N28" s="8">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="8">
+        <v>1</v>
+      </c>
+      <c r="C29" s="8">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0</v>
+      </c>
+      <c r="F29" s="8">
+        <v>1</v>
+      </c>
+      <c r="G29" s="8">
+        <v>1</v>
+      </c>
+      <c r="H29" s="8">
+        <v>1</v>
+      </c>
+      <c r="I29" s="8">
+        <v>0</v>
+      </c>
+      <c r="J29" s="8">
+        <v>0</v>
+      </c>
+      <c r="K29" s="8">
+        <v>1</v>
+      </c>
+      <c r="L29" s="8">
+        <v>0</v>
+      </c>
+      <c r="M29" s="8">
+        <v>0</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="8">
+        <v>0</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0</v>
+      </c>
+      <c r="F30" s="8">
+        <v>0</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8">
+        <v>1</v>
+      </c>
+      <c r="I30" s="8">
+        <v>0</v>
+      </c>
+      <c r="J30" s="8">
+        <v>0</v>
+      </c>
+      <c r="K30" s="8">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8">
+        <v>1</v>
+      </c>
+      <c r="M30" s="8">
+        <v>1</v>
+      </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>1</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0</v>
+      </c>
+      <c r="F31" s="8">
+        <v>1</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1</v>
+      </c>
+      <c r="H31" s="8">
+        <v>1</v>
+      </c>
+      <c r="I31" s="8">
+        <v>0</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8">
+        <v>0</v>
+      </c>
+      <c r="M31" s="8">
+        <v>1</v>
+      </c>
+      <c r="N31" s="8">
+        <v>1</v>
+      </c>
+      <c r="O31" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="8">
+        <v>1</v>
+      </c>
+      <c r="C32" s="8">
+        <v>1</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1</v>
+      </c>
+      <c r="F32" s="8">
+        <v>1</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1</v>
+      </c>
+      <c r="H32" s="8">
+        <v>1</v>
+      </c>
+      <c r="I32" s="8">
+        <v>1</v>
+      </c>
+      <c r="J32" s="8">
+        <v>1</v>
+      </c>
+      <c r="K32" s="8">
+        <v>1</v>
+      </c>
+      <c r="L32" s="8">
+        <v>1</v>
+      </c>
+      <c r="M32" s="8">
+        <v>0</v>
+      </c>
+      <c r="N32" s="8">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="8">
+        <v>0</v>
+      </c>
+      <c r="C33" s="8">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="8">
+        <v>1</v>
+      </c>
+      <c r="F33" s="8">
+        <v>1</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1</v>
+      </c>
+      <c r="H33" s="8">
+        <v>1</v>
+      </c>
+      <c r="I33" s="8">
+        <v>1</v>
+      </c>
+      <c r="J33" s="8">
+        <v>1</v>
+      </c>
+      <c r="K33" s="8">
+        <v>1</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1</v>
+      </c>
+      <c r="N33" s="8">
+        <v>1</v>
+      </c>
+      <c r="O33" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="8">
+        <v>0</v>
+      </c>
+      <c r="C34" s="8">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1</v>
+      </c>
+      <c r="H34" s="8">
+        <v>0</v>
+      </c>
+      <c r="I34" s="8">
+        <v>1</v>
+      </c>
+      <c r="J34" s="8">
+        <v>0</v>
+      </c>
+      <c r="K34" s="8">
+        <v>0</v>
+      </c>
+      <c r="L34" s="8">
+        <v>0</v>
+      </c>
+      <c r="M34" s="8">
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1</v>
+      </c>
+      <c r="C35" s="8">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1</v>
+      </c>
+      <c r="F35" s="8">
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>0</v>
+      </c>
+      <c r="I35" s="8">
+        <v>1</v>
+      </c>
+      <c r="J35" s="8">
+        <v>1</v>
+      </c>
+      <c r="K35" s="8">
+        <v>0</v>
+      </c>
+      <c r="L35" s="8">
+        <v>0</v>
+      </c>
+      <c r="M35" s="8">
+        <v>0</v>
+      </c>
+      <c r="N35" s="8">
+        <v>1</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="8">
+        <v>0</v>
+      </c>
+      <c r="C36" s="8">
+        <v>0</v>
+      </c>
+      <c r="D36" s="8">
+        <v>0</v>
+      </c>
+      <c r="E36" s="8">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>1</v>
+      </c>
+      <c r="G36" s="8">
+        <v>1</v>
+      </c>
+      <c r="H36" s="8">
+        <v>0</v>
+      </c>
+      <c r="I36" s="8">
+        <v>0</v>
+      </c>
+      <c r="J36" s="8">
+        <v>0</v>
+      </c>
+      <c r="K36" s="8">
+        <v>0</v>
+      </c>
+      <c r="L36" s="8">
+        <v>0</v>
+      </c>
+      <c r="M36" s="8">
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>1</v>
+      </c>
+      <c r="O36" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="8">
+        <v>0</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0</v>
+      </c>
+      <c r="D37" s="8">
+        <v>0</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0</v>
+      </c>
+      <c r="F37" s="8">
+        <v>1</v>
+      </c>
+      <c r="G37" s="8">
+        <v>1</v>
+      </c>
+      <c r="H37" s="8">
+        <v>0</v>
+      </c>
+      <c r="I37" s="8">
+        <v>0</v>
+      </c>
+      <c r="J37" s="8">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8">
+        <v>0</v>
+      </c>
+      <c r="L37" s="8">
+        <v>0</v>
+      </c>
+      <c r="M37" s="8">
+        <v>0</v>
+      </c>
+      <c r="N37" s="8">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1</v>
+      </c>
+      <c r="C38" s="8">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8">
+        <v>1</v>
+      </c>
+      <c r="G38" s="8">
+        <v>1</v>
+      </c>
+      <c r="H38" s="8">
+        <v>1</v>
+      </c>
+      <c r="I38" s="8">
+        <v>1</v>
+      </c>
+      <c r="J38" s="8">
+        <v>1</v>
+      </c>
+      <c r="K38" s="8">
+        <v>1</v>
+      </c>
+      <c r="L38" s="8">
+        <v>1</v>
+      </c>
+      <c r="M38" s="8">
+        <v>1</v>
+      </c>
+      <c r="N38" s="8">
+        <v>1</v>
+      </c>
+      <c r="O38" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="8">
+        <v>1</v>
+      </c>
+      <c r="C39" s="8">
+        <v>1</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8">
+        <v>1</v>
+      </c>
+      <c r="G39" s="8">
+        <v>1</v>
+      </c>
+      <c r="H39" s="8">
+        <v>0</v>
+      </c>
+      <c r="I39" s="8">
+        <v>1</v>
+      </c>
+      <c r="J39" s="8">
+        <v>0</v>
+      </c>
+      <c r="K39" s="8">
+        <v>0</v>
+      </c>
+      <c r="L39" s="8">
+        <v>1</v>
+      </c>
+      <c r="M39" s="8">
+        <v>1</v>
+      </c>
+      <c r="N39" s="8">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="8">
+        <v>1</v>
+      </c>
+      <c r="C40" s="8">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1</v>
+      </c>
+      <c r="F40" s="8">
+        <v>1</v>
+      </c>
+      <c r="G40" s="8">
+        <v>1</v>
+      </c>
+      <c r="H40" s="8">
+        <v>1</v>
+      </c>
+      <c r="I40" s="8">
+        <v>1</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="8">
+        <v>1</v>
+      </c>
+      <c r="L40" s="8">
+        <v>1</v>
+      </c>
+      <c r="M40" s="8">
+        <v>1</v>
+      </c>
+      <c r="N40" s="8">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" s="8">
+        <v>1</v>
+      </c>
+      <c r="C41" s="8">
+        <v>1</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1</v>
+      </c>
+      <c r="F41" s="8">
+        <v>1</v>
+      </c>
+      <c r="G41" s="8">
+        <v>1</v>
+      </c>
+      <c r="H41" s="8">
+        <v>1</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1</v>
+      </c>
+      <c r="J41" s="8">
+        <v>1</v>
+      </c>
+      <c r="K41" s="8">
+        <v>1</v>
+      </c>
+      <c r="L41" s="8">
+        <v>1</v>
+      </c>
+      <c r="M41" s="8">
+        <v>1</v>
+      </c>
+      <c r="N41" s="8">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B42" s="8">
+        <v>1</v>
+      </c>
+      <c r="C42" s="8">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8">
+        <v>1</v>
+      </c>
+      <c r="G42" s="8">
+        <v>1</v>
+      </c>
+      <c r="H42" s="8">
+        <v>1</v>
+      </c>
+      <c r="I42" s="8">
+        <v>1</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1</v>
+      </c>
+      <c r="K42" s="8">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8">
+        <v>1</v>
+      </c>
+      <c r="M42" s="8">
+        <v>0</v>
+      </c>
+      <c r="N42" s="8">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B43" s="8">
+        <f>SUM(B3:B42)</f>
+        <v>23</v>
+      </c>
+      <c r="C43" s="8">
+        <f t="shared" ref="C43:N43" si="1">SUM(C3:C42)</f>
+        <v>28</v>
+      </c>
+      <c r="D43" s="8">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="F43" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G43" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="H43" s="8">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="I43" s="8">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="J43" s="8">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="K43" s="8">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="L43" s="8">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="M43" s="8">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="N43" s="8">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B3:M42">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N42">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:O43"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" style="2" customWidth="1"/>
     <col min="2" max="13" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +2909,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -804,7 +2954,7 @@
       </c>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>18</v>
       </c>
@@ -851,7 +3001,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>19</v>
       </c>
@@ -898,7 +3048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
@@ -945,7 +3095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -992,7 +3142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1039,7 +3189,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>23</v>
       </c>
@@ -1086,7 +3236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -1133,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +3330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -1227,7 +3377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1274,7 +3424,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1321,7 +3471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1368,7 +3518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1415,7 +3565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1462,7 +3612,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1509,7 +3659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1556,7 +3706,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1603,7 +3753,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1650,7 +3800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1697,7 +3847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +3894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1791,7 +3941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1838,7 +3988,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1885,7 +4035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1932,7 +4082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>42</v>
       </c>
@@ -1979,7 +4129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>43</v>
       </c>
@@ -2026,7 +4176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>44</v>
       </c>
@@ -2073,7 +4223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -2120,7 +4270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -2167,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>47</v>
       </c>
@@ -2214,7 +4364,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>48</v>
       </c>
@@ -2261,7 +4411,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>49</v>
       </c>
@@ -2308,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
@@ -2355,7 +4505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>51</v>
       </c>
@@ -2402,7 +4552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>52</v>
       </c>
@@ -2449,7 +4599,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>53</v>
       </c>
@@ -2496,7 +4646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>54</v>
       </c>
@@ -2543,7 +4693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>55</v>
       </c>
@@ -2590,7 +4740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>56</v>
       </c>
@@ -2637,7 +4787,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>57</v>
       </c>
@@ -2684,7 +4834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>58</v>
       </c>
